--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690989.1984093407</v>
+        <v>771444.0147700277</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250052</v>
+        <v>680573.5606250049</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>135.4141600157168</v>
+        <v>102.3581904782349</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,62 +898,62 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>115.506657889051</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>84.59673265573458</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.580549094716531</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.10378467502365</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>172.558048759713</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>92.62293350322221</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.50932949672293</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20.75911149906594</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="15">
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>201.5155040037002</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.503216620085</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.75911149906585</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>45.58123541261003</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>211.4306349458964</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>37.14341561367265</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E20" t="n">
+        <v>243.2386572690347</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F20" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G20" t="n">
-        <v>243.2386572690347</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.960332327964036</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>146.4131672086411</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.8611009721718</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
-        <v>65.03623328838543</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>91.0942270148646</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9999812970856</v>
+        <v>19.6317032016281</v>
       </c>
       <c r="U23" t="n">
         <v>251.2707998041555</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.55684833281734</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>132.9360003124483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
         <v>72.16022720352242</v>
@@ -2456,13 +2456,13 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>137.1047822907029</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>166.670940136553</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>220.4408685269348</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I26" t="n">
-        <v>8.410930209908228</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>140.9000649300726</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>58.27618179412237</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>21.02303004802081</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>240.0797932857764</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
         <v>174.4037110746249</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>32.31806441661529</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>43.77487274941657</v>
+        <v>141.4627134431539</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U30" t="n">
         <v>225.9084462740043</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>12.4965927198302</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>259.4971607343899</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
-        <v>135.6747875147109</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>52.71840517161379</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.51942901087669</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S33" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
         <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.39292078081726</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>158.4218578960072</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1522977307186</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>225.8040809724425</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.3670737191223</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.24765421606847</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>91.0942270148646</v>
       </c>
       <c r="S35" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.9999812970856</v>
@@ -3353,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.4004677732277</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>59.02155867745655</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>167.1123551568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>12.4965927198302</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>75.82577846190549</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S38" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>211.258173725537</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>3.561483857115173</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.306369405738268</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>69.07521525435416</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
         <v>225.9084462740043</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>126.9002040457904</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>227.2574210185059</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>286.7444891859682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>221.6408859770897</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>70.58963545932443</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>167.0220657306268</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>161.1120657380426</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>166.670940136553</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>208.7330037140205</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>35.58595335808847</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.12981880529368</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>230.782752502682</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>200.8294330837151</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>166.670940136553</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>251.810259228364</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.752636919763</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>860.6650439164596</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>860.6650439164596</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>625.5129356847169</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>625.5129356847169</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>625.5129356847169</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.752636919763</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>340.3774323053849</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4679,19 +4679,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4758,7 +4758,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4843,13 +4843,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>533.9876043126192</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="10">
@@ -5026,10 +5026,10 @@
         <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
         <v>22.09252109618844</v>
@@ -5041,7 +5041,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5050,13 +5050,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,10 +5065,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1012.602029885156</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>804.7112818786932</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T11" t="n">
         <v>579.9844679696339</v>
@@ -5077,10 +5077,10 @@
         <v>579.9844679696339</v>
       </c>
       <c r="V11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X11" t="n">
         <v>301.0384945329112</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.6270790693035</v>
+        <v>734.5308178174632</v>
       </c>
       <c r="C12" t="n">
-        <v>168.6270790693035</v>
+        <v>560.0777885363362</v>
       </c>
       <c r="D12" t="n">
-        <v>168.6270790693035</v>
+        <v>560.0777885363362</v>
       </c>
       <c r="E12" t="n">
-        <v>168.6270790693035</v>
+        <v>400.8403335308807</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>254.3057755577657</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>115.6510397863119</v>
       </c>
       <c r="H12" t="n">
         <v>22.09252109618844</v>
@@ -5123,19 +5123,19 @@
         <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M12" t="n">
-        <v>685.3494183114809</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N12" t="n">
-        <v>958.7443668768128</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1067.747944206671</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1067.747944206671</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>865.8680442347807</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U12" t="n">
-        <v>865.8680442347807</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="V12" t="n">
-        <v>630.715936003038</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="W12" t="n">
-        <v>376.4785792748363</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="X12" t="n">
-        <v>168.6270790693035</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.6270790693035</v>
+        <v>902.7461548375312</v>
       </c>
     </row>
     <row r="13">
@@ -5232,10 +5232,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
         <v>22.09252109618844</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.0072940269172</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C14" t="n">
-        <v>43.06132059019444</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D14" t="n">
-        <v>43.06132059019444</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618844</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F14" t="n">
         <v>22.09252109618844</v>
@@ -5278,19 +5278,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K14" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823545</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O14" t="n">
         <v>989.7620250901065</v>
@@ -5308,22 +5308,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V14" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W14" t="n">
-        <v>600.9532674636399</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X14" t="n">
-        <v>322.0072940269172</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.0072940269172</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>165.799003153448</v>
       </c>
       <c r="L15" t="n">
-        <v>411.954469746149</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M15" t="n">
-        <v>685.3494183114809</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N15" t="n">
-        <v>828.8278839945615</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5396,10 +5396,10 @@
         <v>641.2553342118269</v>
       </c>
       <c r="W15" t="n">
-        <v>387.0179774836253</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X15" t="n">
-        <v>179.1664772780925</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y15" t="n">
         <v>22.09252109618844</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="I16" t="n">
         <v>22.09252109618844</v>
@@ -5457,31 +5457,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C17" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D17" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G17" t="n">
+        <v>22.09252109618844</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22.09252109618844</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22.09252109618844</v>
+      </c>
+      <c r="J17" t="n">
         <v>22.09252109618843</v>
-      </c>
-      <c r="H17" t="n">
-        <v>22.09252109618843</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22.09252109618843</v>
-      </c>
-      <c r="J17" t="n">
-        <v>22.09252109618842</v>
       </c>
       <c r="K17" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="T17" t="n">
-        <v>879.8992409003624</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U17" t="n">
-        <v>626.0261199015631</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V17" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W17" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X17" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y17" t="n">
-        <v>579.9844679696338</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>343.0801083504305</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C18" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D18" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618843</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888895</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M18" t="n">
-        <v>541.6429362542212</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N18" t="n">
-        <v>815.037884819553</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.534698402837</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P18" t="n">
         <v>1104.626054809422</v>
@@ -5621,25 +5621,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>932.6220420606003</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T18" t="n">
-        <v>932.6220420606003</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U18" t="n">
-        <v>719.0557441354524</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="V18" t="n">
-        <v>719.0557441354524</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="W18" t="n">
-        <v>719.0557441354524</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="X18" t="n">
-        <v>719.0557441354524</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y18" t="n">
-        <v>511.2954453704985</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618843</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618843</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618843</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L19" t="n">
         <v>58.70189726492715</v>
@@ -5706,19 +5706,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>825.6800813726991</v>
       </c>
       <c r="C20" t="n">
-        <v>825.6800813726991</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D20" t="n">
-        <v>825.6800813726991</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="E20" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F20" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
         <v>22.09252109618843</v>
@@ -5758,13 +5758,13 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823541</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O20" t="n">
         <v>989.7620250901062</v>
@@ -5794,7 +5794,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X20" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y20" t="n">
         <v>825.6800813726991</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>171.0269307574397</v>
+        <v>205.5963911126327</v>
       </c>
       <c r="C21" t="n">
-        <v>171.0269307574397</v>
+        <v>31.14336183150564</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618843</v>
+        <v>31.14336183150564</v>
       </c>
       <c r="E21" t="n">
         <v>22.09252109618843</v>
@@ -5834,19 +5834,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618843</v>
+        <v>45.18387750277313</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888894</v>
+        <v>291.3393440954741</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542212</v>
+        <v>564.734292660806</v>
       </c>
       <c r="N21" t="n">
-        <v>815.037884819553</v>
+        <v>838.1292412261379</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.534698402837</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P21" t="n">
         <v>1104.626054809422</v>
@@ -5858,25 +5858,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>956.7339667198852</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>754.8540667479945</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U21" t="n">
-        <v>754.8540667479945</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V21" t="n">
-        <v>754.8540667479945</v>
+        <v>667.5940466057882</v>
       </c>
       <c r="W21" t="n">
-        <v>754.8540667479945</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="X21" t="n">
-        <v>547.0025665424616</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.2422677775077</v>
+        <v>205.5963911126327</v>
       </c>
     </row>
     <row r="22">
@@ -5916,46 +5916,46 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N22" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
       <c r="C23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
       <c r="D23" t="n">
-        <v>935.6995162828656</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="E23" t="n">
-        <v>935.6995162828656</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="F23" t="n">
-        <v>524.713611493258</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="G23" t="n">
-        <v>106.1610117769728</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H23" t="n">
-        <v>106.1610117769728</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I23" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J23" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.1019626009679</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300137</v>
+        <v>654.3560310300136</v>
       </c>
       <c r="M23" t="n">
         <v>1033.983090059323</v>
@@ -6016,25 +6016,25 @@
         <v>1931.377971238402</v>
       </c>
       <c r="S23" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T23" t="n">
-        <v>1520.571292317502</v>
+        <v>1911.547968004434</v>
       </c>
       <c r="U23" t="n">
-        <v>1266.762403626436</v>
+        <v>1657.739079313368</v>
       </c>
       <c r="V23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
       <c r="W23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
       <c r="X23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
       <c r="Y23" t="n">
-        <v>935.6995162828656</v>
+        <v>1326.676191969798</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>398.116667540387</v>
+        <v>985.2805263250054</v>
       </c>
       <c r="C24" t="n">
-        <v>398.116667540387</v>
+        <v>810.8274970438785</v>
       </c>
       <c r="D24" t="n">
-        <v>398.116667540387</v>
+        <v>661.8930873826272</v>
       </c>
       <c r="E24" t="n">
-        <v>398.116667540387</v>
+        <v>502.6556323771717</v>
       </c>
       <c r="F24" t="n">
-        <v>251.5821095672719</v>
+        <v>356.1210744040567</v>
       </c>
       <c r="G24" t="n">
-        <v>113.3569652266061</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H24" t="n">
         <v>113.3569652266061</v>
@@ -6068,25 +6068,25 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K24" t="n">
-        <v>291.9427578142076</v>
+        <v>122.5224875632328</v>
       </c>
       <c r="L24" t="n">
-        <v>629.5180138714659</v>
+        <v>460.097743620491</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.431636934412</v>
+        <v>906.0113666834375</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O24" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
@@ -6104,16 +6104,16 @@
         <v>1361.256162110027</v>
       </c>
       <c r="V24" t="n">
-        <v>1126.104053878285</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="W24" t="n">
-        <v>871.8666971500832</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="X24" t="n">
-        <v>664.0151969445503</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="Y24" t="n">
-        <v>456.2548981795964</v>
+        <v>1153.495863345074</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="C25" t="n">
-        <v>40.46784683920975</v>
+        <v>329.0741653330635</v>
       </c>
       <c r="D25" t="n">
-        <v>40.46784683920975</v>
+        <v>178.9575259207278</v>
       </c>
       <c r="E25" t="n">
         <v>40.46784683920975</v>
@@ -6180,19 +6180,19 @@
         <v>498.0103482609704</v>
       </c>
       <c r="U25" t="n">
-        <v>208.8223318256269</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="V25" t="n">
-        <v>208.8223318256269</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="W25" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="X25" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1633.253009984676</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="C26" t="n">
-        <v>1264.290493044264</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="D26" t="n">
-        <v>1264.290493044264</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="E26" t="n">
-        <v>878.5022404460199</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="F26" t="n">
-        <v>467.5163356564123</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="G26" t="n">
-        <v>48.96373594012715</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96373594012715</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I26" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J26" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K26" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L26" t="n">
         <v>654.3560310300137</v>
@@ -6250,28 +6250,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S26" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T26" t="n">
-        <v>2023.392341960488</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U26" t="n">
-        <v>2023.392341960488</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.392341960488</v>
+        <v>1125.294092883477</v>
       </c>
       <c r="W26" t="n">
-        <v>2023.392341960488</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.392341960488</v>
+        <v>772.5254376133628</v>
       </c>
       <c r="Y26" t="n">
-        <v>1633.253009984676</v>
+        <v>772.5254376133628</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>807.8524431008243</v>
+        <v>989.2268824712791</v>
       </c>
       <c r="C27" t="n">
-        <v>633.3994138196973</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D27" t="n">
-        <v>484.465004158446</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E27" t="n">
-        <v>325.2275491529905</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F27" t="n">
-        <v>178.6929911798755</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G27" t="n">
-        <v>40.46784683920975</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H27" t="n">
-        <v>40.46784683920975</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I27" t="n">
         <v>40.46784683920975</v>
@@ -6332,25 +6332,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S27" t="n">
-        <v>1881.069044051323</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T27" t="n">
-        <v>1881.069044051323</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U27" t="n">
-        <v>1881.069044051323</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="V27" t="n">
-        <v>1645.916935819581</v>
+        <v>1424.067348351374</v>
       </c>
       <c r="W27" t="n">
-        <v>1391.679579091379</v>
+        <v>1365.202518256301</v>
       </c>
       <c r="X27" t="n">
-        <v>1183.828078885846</v>
+        <v>1365.202518256301</v>
       </c>
       <c r="Y27" t="n">
-        <v>976.0677801208924</v>
+        <v>1157.442219491347</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="C28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="D28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="E28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46784683920975</v>
+        <v>61.70323072609946</v>
       </c>
       <c r="G28" t="n">
         <v>40.46784683920975</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609704</v>
       </c>
       <c r="U28" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="V28" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="W28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="X28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.5931782240098</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1246.653169920554</v>
+        <v>1379.396398152655</v>
       </c>
       <c r="C29" t="n">
-        <v>877.6906529801427</v>
+        <v>1379.396398152655</v>
       </c>
       <c r="D29" t="n">
-        <v>877.6906529801427</v>
+        <v>1379.396398152655</v>
       </c>
       <c r="E29" t="n">
-        <v>635.1858112773382</v>
+        <v>1379.396398152655</v>
       </c>
       <c r="F29" t="n">
-        <v>635.1858112773382</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="G29" t="n">
-        <v>216.6332115610531</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H29" t="n">
         <v>216.6332115610531</v>
@@ -6463,13 +6463,13 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J29" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K29" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L29" t="n">
-        <v>654.3560310300138</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M29" t="n">
         <v>1033.983090059323</v>
@@ -6478,7 +6478,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O29" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P29" t="n">
         <v>1933.252382068733</v>
@@ -6493,22 +6493,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T29" t="n">
-        <v>2023.392341960488</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="U29" t="n">
-        <v>2023.392341960488</v>
+        <v>1769.535730128466</v>
       </c>
       <c r="V29" t="n">
-        <v>2023.392341960488</v>
+        <v>1769.535730128466</v>
       </c>
       <c r="W29" t="n">
-        <v>2023.392341960488</v>
+        <v>1769.535730128466</v>
       </c>
       <c r="X29" t="n">
-        <v>2023.392341960488</v>
+        <v>1769.535730128466</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.253009984676</v>
+        <v>1379.396398152655</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>765.7211496639941</v>
+        <v>357.8125058608962</v>
       </c>
       <c r="C30" t="n">
-        <v>591.2681203828671</v>
+        <v>183.3594765797692</v>
       </c>
       <c r="D30" t="n">
-        <v>442.3337107216158</v>
+        <v>183.3594765797692</v>
       </c>
       <c r="E30" t="n">
-        <v>398.116667540387</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F30" t="n">
-        <v>251.5821095672719</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K30" t="n">
         <v>122.5224875632328</v>
@@ -6572,22 +6572,22 @@
         <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1859.367801621261</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1631.177451849539</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V30" t="n">
-        <v>1396.025343617797</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W30" t="n">
-        <v>1141.787986889595</v>
+        <v>941.639641851451</v>
       </c>
       <c r="X30" t="n">
-        <v>933.9364866840622</v>
+        <v>733.7881416459181</v>
       </c>
       <c r="Y30" t="n">
-        <v>933.9364866840622</v>
+        <v>526.0278428809643</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C31" t="n">
-        <v>485.387527331849</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F31" t="n">
         <v>40.46784683920975</v>
@@ -6657,16 +6657,16 @@
         <v>498.0103482609704</v>
       </c>
       <c r="V31" t="n">
-        <v>498.0103482609704</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W31" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y31" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>795.2186163778657</v>
+        <v>602.4214641592973</v>
       </c>
       <c r="C32" t="n">
-        <v>426.256099437454</v>
+        <v>602.4214641592973</v>
       </c>
       <c r="D32" t="n">
-        <v>426.256099437454</v>
+        <v>602.4214641592973</v>
       </c>
       <c r="E32" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="F32" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="G32" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H32" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J32" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339113</v>
       </c>
       <c r="K32" t="n">
-        <v>328.1019626009679</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L32" t="n">
-        <v>654.3560310300137</v>
+        <v>654.3560310300142</v>
       </c>
       <c r="M32" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N32" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O32" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P32" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q32" t="n">
         <v>2023.392341960488</v>
@@ -6730,22 +6730,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T32" t="n">
-        <v>2023.392341960488</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="U32" t="n">
-        <v>1886.347102046638</v>
+        <v>1548.371350949133</v>
       </c>
       <c r="V32" t="n">
-        <v>1555.284214703067</v>
+        <v>1217.308463605563</v>
       </c>
       <c r="W32" t="n">
-        <v>1555.284214703067</v>
+        <v>864.5398083354487</v>
       </c>
       <c r="X32" t="n">
-        <v>1181.818456441988</v>
+        <v>864.5398083354487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1181.818456441988</v>
+        <v>864.5398083354487</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>523.0927407870436</v>
+        <v>523.1916693912715</v>
       </c>
       <c r="C33" t="n">
-        <v>348.6397115059165</v>
+        <v>348.7386401101445</v>
       </c>
       <c r="D33" t="n">
-        <v>199.7053018446653</v>
+        <v>348.7386401101445</v>
       </c>
       <c r="E33" t="n">
-        <v>40.46784683920975</v>
+        <v>348.7386401101445</v>
       </c>
       <c r="F33" t="n">
-        <v>40.46784683920975</v>
+        <v>202.2040821370295</v>
       </c>
       <c r="G33" t="n">
-        <v>40.46784683920975</v>
+        <v>202.2040821370295</v>
       </c>
       <c r="H33" t="n">
-        <v>40.46784683920975</v>
+        <v>93.71876115397117</v>
       </c>
       <c r="I33" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J33" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>122.5224875632328</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L33" t="n">
-        <v>460.097743620491</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M33" t="n">
-        <v>906.0113666834375</v>
+        <v>823.9567259594144</v>
       </c>
       <c r="N33" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.107559530962</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P33" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236464</v>
       </c>
       <c r="Q33" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>1988.524231848491</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>1824.499691509264</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T33" t="n">
-        <v>1824.499691509264</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U33" t="n">
-        <v>1596.309341737543</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V33" t="n">
-        <v>1361.1572335058</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="W33" t="n">
-        <v>1106.919876777598</v>
+        <v>1107.018805381826</v>
       </c>
       <c r="X33" t="n">
-        <v>899.0683765720655</v>
+        <v>899.1673051762934</v>
       </c>
       <c r="Y33" t="n">
-        <v>691.3080778071117</v>
+        <v>691.4070064113396</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K34" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L34" t="n">
         <v>155.7847551810659</v>
@@ -6882,28 +6882,28 @@
         <v>498.0103482609704</v>
       </c>
       <c r="R34" t="n">
-        <v>337.9882695781349</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="S34" t="n">
-        <v>337.9882695781349</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5516052036716</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5516052036716</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5516052036716</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5516052036716</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>880.1625635623145</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="C35" t="n">
-        <v>880.1625635623145</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="D35" t="n">
-        <v>521.8968649555641</v>
+        <v>1098.091281620297</v>
       </c>
       <c r="E35" t="n">
-        <v>521.8968649555641</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F35" t="n">
-        <v>521.8968649555641</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G35" t="n">
-        <v>103.3442652392789</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3442652392789</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I35" t="n">
         <v>40.46784683920975</v>
@@ -6964,25 +6964,25 @@
         <v>1931.377971238402</v>
       </c>
       <c r="S35" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T35" t="n">
-        <v>1520.571292317502</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="V35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="X35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227047</v>
       </c>
       <c r="Y35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227047</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.2268824712791</v>
+        <v>691.7642831251577</v>
       </c>
       <c r="C36" t="n">
-        <v>814.7738531901521</v>
+        <v>517.3112538440307</v>
       </c>
       <c r="D36" t="n">
-        <v>665.8394435289008</v>
+        <v>368.3768441827795</v>
       </c>
       <c r="E36" t="n">
-        <v>506.6019885234452</v>
+        <v>368.3768441827795</v>
       </c>
       <c r="F36" t="n">
-        <v>360.0674305503302</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="G36" t="n">
         <v>221.8422862096645</v>
@@ -7025,7 +7025,7 @@
         <v>629.5180138714659</v>
       </c>
       <c r="M36" t="n">
-        <v>773.3516022495344</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N36" t="n">
         <v>1246.774245445018</v>
@@ -7040,28 +7040,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R36" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S36" t="n">
-        <v>2023.392341960488</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.392341960488</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U36" t="n">
-        <v>2023.392341960488</v>
+        <v>1529.828775843914</v>
       </c>
       <c r="V36" t="n">
-        <v>1788.240233728745</v>
+        <v>1529.828775843914</v>
       </c>
       <c r="W36" t="n">
-        <v>1534.002877000543</v>
+        <v>1275.591419115712</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.202518256301</v>
+        <v>1067.73991891018</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.442219491347</v>
+        <v>859.9796201452257</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C37" t="n">
-        <v>485.387527331849</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D37" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E37" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F37" t="n">
         <v>40.46784683920975</v>
@@ -7128,19 +7128,19 @@
         <v>498.0103482609704</v>
       </c>
       <c r="U37" t="n">
-        <v>498.0103482609704</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V37" t="n">
-        <v>498.0103482609704</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W37" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.0103482609704</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1481.029110089762</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="C38" t="n">
-        <v>1404.437414673696</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="D38" t="n">
-        <v>1046.171716066946</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="E38" t="n">
-        <v>1046.171716066946</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="F38" t="n">
-        <v>635.1858112773382</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="G38" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H38" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I38" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J38" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339113</v>
       </c>
       <c r="K38" t="n">
-        <v>328.1019626009677</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300135</v>
+        <v>654.3560310300142</v>
       </c>
       <c r="M38" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N38" t="n">
-        <v>1405.120914245784</v>
+        <v>1405.120914245785</v>
       </c>
       <c r="O38" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P38" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q38" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S38" t="n">
-        <v>1833.797765359876</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="T38" t="n">
-        <v>1833.797765359876</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U38" t="n">
-        <v>1833.797765359876</v>
+        <v>1496.773774245854</v>
       </c>
       <c r="V38" t="n">
-        <v>1833.797765359876</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="W38" t="n">
-        <v>1481.029110089762</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="X38" t="n">
-        <v>1481.029110089762</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="Y38" t="n">
-        <v>1481.029110089762</v>
+        <v>792.2451286412038</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>652.2124465368993</v>
+        <v>612.0498625890982</v>
       </c>
       <c r="C39" t="n">
-        <v>477.7594172557723</v>
+        <v>612.0498625890982</v>
       </c>
       <c r="D39" t="n">
-        <v>328.825007594521</v>
+        <v>463.1154529278469</v>
       </c>
       <c r="E39" t="n">
-        <v>325.2275491529905</v>
+        <v>303.8779979223914</v>
       </c>
       <c r="F39" t="n">
-        <v>178.6929911798755</v>
+        <v>157.3434399492764</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46784683920975</v>
+        <v>157.3434399492764</v>
       </c>
       <c r="H39" t="n">
-        <v>40.46784683920975</v>
+        <v>48.85811896621811</v>
       </c>
       <c r="I39" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920975</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K39" t="n">
-        <v>40.46784683920975</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L39" t="n">
-        <v>378.043102896468</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M39" t="n">
-        <v>823.9567259594144</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O39" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P39" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R39" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S39" t="n">
-        <v>1953.61939725912</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T39" t="n">
-        <v>1953.61939725912</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U39" t="n">
-        <v>1725.429047487398</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V39" t="n">
-        <v>1490.276939255656</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W39" t="n">
-        <v>1236.039582527454</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="X39" t="n">
-        <v>1028.188082321921</v>
+        <v>988.0254983741202</v>
       </c>
       <c r="Y39" t="n">
-        <v>820.4277835569674</v>
+        <v>780.2651996091663</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="C40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="D40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="E40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="F40" t="n">
-        <v>40.46784683920975</v>
+        <v>369.8283239722932</v>
       </c>
       <c r="G40" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="H40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L40" t="n">
         <v>155.7847551810659</v>
@@ -7371,13 +7371,13 @@
         <v>498.0103482609704</v>
       </c>
       <c r="W40" t="n">
-        <v>268.4573977372271</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="X40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>864.5398083354482</v>
+        <v>1100.920744472081</v>
       </c>
       <c r="C41" t="n">
-        <v>574.8989101678036</v>
+        <v>731.9582275316691</v>
       </c>
       <c r="D41" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="E41" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="F41" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="G41" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H41" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I41" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J41" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K41" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300138</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M41" t="n">
         <v>1033.983090059323</v>
@@ -7435,28 +7435,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R41" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S41" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T41" t="n">
-        <v>1802.180239640199</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U41" t="n">
-        <v>1548.371350949133</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="V41" t="n">
-        <v>1217.308463605562</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="W41" t="n">
-        <v>864.5398083354482</v>
+        <v>1324.800427277222</v>
       </c>
       <c r="X41" t="n">
-        <v>864.5398083354482</v>
+        <v>1100.920744472081</v>
       </c>
       <c r="Y41" t="n">
-        <v>864.5398083354482</v>
+        <v>1100.920744472081</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.2268824712791</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="C42" t="n">
-        <v>814.7738531901521</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="D42" t="n">
-        <v>665.8394435289008</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="E42" t="n">
-        <v>506.6019885234452</v>
+        <v>295.4877257953831</v>
       </c>
       <c r="F42" t="n">
-        <v>360.0674305503302</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G42" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H42" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I42" t="n">
         <v>40.46784683920975</v>
@@ -7493,22 +7493,22 @@
         <v>86.55375581100976</v>
       </c>
       <c r="K42" t="n">
-        <v>291.9427578142076</v>
+        <v>86.55375581100976</v>
       </c>
       <c r="L42" t="n">
-        <v>629.5180138714659</v>
+        <v>424.129011868268</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0113666834375</v>
+        <v>870.0426349312145</v>
       </c>
       <c r="N42" t="n">
-        <v>1379.434009878921</v>
+        <v>1343.465278126698</v>
       </c>
       <c r="O42" t="n">
-        <v>1746.107559530962</v>
+        <v>1710.138827778739</v>
       </c>
       <c r="P42" t="n">
-        <v>2023.392341960488</v>
+        <v>1987.423610208265</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7517,25 +7517,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S42" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.392341960488</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U42" t="n">
-        <v>2023.392341960488</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V42" t="n">
-        <v>1788.240233728745</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W42" t="n">
-        <v>1534.002877000543</v>
+        <v>941.639641851451</v>
       </c>
       <c r="X42" t="n">
-        <v>1326.15137679501</v>
+        <v>733.7881416459181</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.442219491347</v>
+        <v>526.0278428809643</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="C43" t="n">
-        <v>40.46784683920975</v>
+        <v>335.2708879195133</v>
       </c>
       <c r="D43" t="n">
-        <v>40.46784683920975</v>
+        <v>335.2708879195133</v>
       </c>
       <c r="E43" t="n">
-        <v>40.46784683920975</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F43" t="n">
         <v>40.46784683920975</v>
@@ -7602,19 +7602,19 @@
         <v>498.0103482609704</v>
       </c>
       <c r="U43" t="n">
-        <v>208.8223318256269</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="V43" t="n">
-        <v>208.8223318256269</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="W43" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="X43" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609704</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>837.2420042270616</v>
+        <v>620.2717816725715</v>
       </c>
       <c r="C44" t="n">
-        <v>837.2420042270616</v>
+        <v>251.3092647321598</v>
       </c>
       <c r="D44" t="n">
-        <v>837.2420042270616</v>
+        <v>251.3092647321598</v>
       </c>
       <c r="E44" t="n">
-        <v>451.4537516288173</v>
+        <v>251.3092647321598</v>
       </c>
       <c r="F44" t="n">
         <v>40.46784683920975</v>
@@ -7648,13 +7648,13 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339109</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009679</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.3560310300137</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7672,28 +7672,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R44" t="n">
-        <v>1987.446934528075</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S44" t="n">
-        <v>1987.446934528075</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T44" t="n">
-        <v>1987.446934528075</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U44" t="n">
-        <v>1987.446934528075</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="V44" t="n">
-        <v>1987.446934528075</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="W44" t="n">
-        <v>1987.446934528075</v>
+        <v>993.7375399336513</v>
       </c>
       <c r="X44" t="n">
-        <v>1613.981176266995</v>
+        <v>620.2717816725715</v>
       </c>
       <c r="Y44" t="n">
-        <v>1223.841844291183</v>
+        <v>620.2717816725715</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>595.9818591744399</v>
+        <v>778.1126197432169</v>
       </c>
       <c r="C45" t="n">
-        <v>421.5288298933129</v>
+        <v>603.6595904620899</v>
       </c>
       <c r="D45" t="n">
-        <v>272.5944202320617</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="E45" t="n">
-        <v>113.3569652266061</v>
+        <v>295.4877257953831</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G45" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H45" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920975</v>
@@ -7739,13 +7739,13 @@
         <v>1075.431636934412</v>
       </c>
       <c r="N45" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O45" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P45" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
@@ -7763,16 +7763,16 @@
         <v>1595.053647150622</v>
       </c>
       <c r="V45" t="n">
-        <v>1359.901538918879</v>
+        <v>1595.053647150622</v>
       </c>
       <c r="W45" t="n">
-        <v>1105.664182190678</v>
+        <v>1361.939755733772</v>
       </c>
       <c r="X45" t="n">
-        <v>897.812681985145</v>
+        <v>1154.088255528239</v>
       </c>
       <c r="Y45" t="n">
-        <v>690.0523832201911</v>
+        <v>946.3279567632849</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>498.0103482609704</v>
       </c>
       <c r="U46" t="n">
-        <v>208.8223318256269</v>
+        <v>295.1523350450966</v>
       </c>
       <c r="V46" t="n">
-        <v>208.8223318256269</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="W46" t="n">
         <v>40.46784683920975</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
-        <v>272.0288590235227</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>327.1395372443068</v>
       </c>
       <c r="N15" t="n">
-        <v>256.677702939222</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>272.4433368266699</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>142.9145225887213</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q18" t="n">
         <v>130.3661252938571</v>
@@ -9482,7 +9482,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810002</v>
+        <v>149.0021003118938</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>142.9145225887215</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657044</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>139.8850741043213</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657044</v>
       </c>
       <c r="K30" t="n">
-        <v>93.33365090048288</v>
+        <v>139.8850741043213</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10430,7 +10430,7 @@
         <v>79.53961213657044</v>
       </c>
       <c r="K33" t="n">
-        <v>139.8850741043213</v>
+        <v>57.00159862551011</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.07752568140143</v>
+        <v>158.9610011602131</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>160.5737155834565</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657044</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>57.00159862551011</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>428.2260877679171</v>
+        <v>308.2107882314581</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551011</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>294.5734776379041</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.07752568140143</v>
+        <v>112.4095779563741</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>308.2107882314576</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.07752568140143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22597,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,10 +22631,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>64.75056867910476</v>
+        <v>97.80653821658674</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,19 +22786,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>302.2574731329353</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>21.83685927415959</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22998,10 +22998,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8771690273874</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>121.1762525477429</v>
       </c>
       <c r="Y9" t="n">
-        <v>201.1021466825878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>49.92149701025566</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>49.92149701025565</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>18.88499360022223</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268739</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.97151440365663</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23396,13 +23396,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23442,7 +23442,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C14" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>361.1712585731958</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>163.6373884726768</v>
       </c>
       <c r="G14" t="n">
         <v>415.1619485273195</v>
@@ -23548,7 +23548,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
         <v>251.3343897888113</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>93.57458697611355</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="15">
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>50.17947915721942</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.17947915721936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>59.29392811725948</v>
       </c>
       <c r="J16" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>174.4537986637794</v>
@@ -23706,7 +23706,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
         <v>286.3155846423218</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>120.2661701862135</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>282.1710230575248</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.2681884137393</v>
@@ -23864,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>14.50579129629745</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>168.6295695898048</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>137.5366751736811</v>
       </c>
       <c r="G19" t="n">
         <v>167.9278262653587</v>
@@ -23946,7 +23946,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1843906944438</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E20" t="n">
-        <v>105.7738563699064</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6847481274369</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>23.87080541269199</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059365</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24153,7 +24153,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>109.3674777862394</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>199.3682780954575</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>108.97633531705</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.906892584810805</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>9.329180355866299</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,13 +24420,13 @@
         <v>226.1522977307186</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>119.852058200038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>186.4351772147766</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>165.9927808647167</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>69.07521525435416</v>
       </c>
       <c r="S27" t="n">
-        <v>21.48423000576202</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9084462740043</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>193.4188013667973</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.571272790944</v>
+        <v>146.5482427429232</v>
       </c>
       <c r="H28" t="n">
         <v>158.4955995708086</v>
@@ -24657,7 +24657,7 @@
         <v>226.1522977307186</v>
       </c>
       <c r="U28" t="n">
-        <v>119.852058200038</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>141.8505767864854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2707998041555</v>
+        <v>218.9527353875402</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8702077059844</v>
+        <v>16.18236701224708</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>154.7502283787976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.571272790944</v>
@@ -24897,10 +24897,10 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>85.69356525287594</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>123.2366809290907</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24937,7 +24937,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>115.5960122894446</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>19.44182203190864</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.55578624347748</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I34" t="n">
-        <v>74.43583300699805</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J34" t="n">
         <v>63.68592579338139</v>
@@ -25122,22 +25122,22 @@
         <v>51.01734149371098</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>158.4218578960072</v>
       </c>
       <c r="S34" t="n">
         <v>216.7022572194656</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.1522977307186</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>156.1262890998193</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I35" t="n">
-        <v>112.1560568585564</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.07521525435416</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9084462740043</v>
+        <v>166.8868875965478</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>38.66063004667748</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>154.7502283787976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.571272790944</v>
@@ -25368,13 +25368,13 @@
         <v>226.1522977307186</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>289.4471133091021</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2707998041555</v>
+        <v>40.01262607861844</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>154.0835965982858</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>63.85385779778416</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.52084397714081</v>
       </c>
       <c r="G40" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>142.8287537878153</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>59.26557731808512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>78.52840258503937</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>148.0902147013794</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>95.94354819054291</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>69.07521525435416</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>38.66063004667754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>6.134755360585245</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.571272790944</v>
@@ -25842,13 +25842,13 @@
         <v>226.1522977307186</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>119.852058200038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>198.1430420276909</v>
       </c>
       <c r="G44" t="n">
         <v>414.3670737191223</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.50827365677613</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>187.6986308346051</v>
@@ -25921,19 +25921,19 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.40336484457366</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>20.91223065823763</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>226.1522977307186</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>85.46670318727499</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>119.852058200038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457239.5741865232</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>484917.8615685394</v>
+        <v>484917.8615685396</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647760.5553234601</v>
+        <v>647760.55532346</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647760.5553234601</v>
+        <v>647760.5553234603</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647760.55532346</v>
+        <v>647760.5553234601</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647760.5553234601</v>
+        <v>647760.55532346</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647760.55532346</v>
+        <v>647760.5553234601</v>
       </c>
     </row>
     <row r="16">
@@ -26328,34 +26328,34 @@
         <v>177181.8331056511</v>
       </c>
       <c r="G2" t="n">
-        <v>177181.8331056511</v>
+        <v>177181.833105651</v>
       </c>
       <c r="H2" t="n">
         <v>177181.8331056511</v>
       </c>
       <c r="I2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="J2" t="n">
         <v>241782.0775782847</v>
       </c>
       <c r="K2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="L2" t="n">
-        <v>241782.0775782846</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="M2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="N2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="O2" t="n">
         <v>241782.0775782848</v>
       </c>
       <c r="P2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923567</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213656</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>42169.81622231289</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="G4" t="n">
         <v>42169.81622231289</v>
       </c>
       <c r="H4" t="n">
-        <v>42169.81622231289</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="I4" t="n">
         <v>43688.53987538235</v>
@@ -26484,7 +26484,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="H5" t="n">
         <v>17553.77951678014</v>
@@ -26499,13 +26499,13 @@
         <v>35829.43444762748</v>
       </c>
       <c r="L5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="M5" t="n">
         <v>35829.43444762748</v>
       </c>
       <c r="N5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="O5" t="n">
         <v>35829.43444762748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17125.4637399136</v>
+        <v>-6129.254181877181</v>
       </c>
       <c r="C6" t="n">
-        <v>63643.96779163407</v>
+        <v>74640.17734967048</v>
       </c>
       <c r="D6" t="n">
-        <v>63643.96779163407</v>
+        <v>74640.17734967048</v>
       </c>
       <c r="E6" t="n">
-        <v>67162.40364599782</v>
+        <v>77662.66097818993</v>
       </c>
       <c r="F6" t="n">
-        <v>105791.2847752335</v>
+        <v>116291.5421074256</v>
       </c>
       <c r="G6" t="n">
-        <v>105791.2847752335</v>
+        <v>116291.5421074255</v>
       </c>
       <c r="H6" t="n">
-        <v>105791.2847752335</v>
+        <v>116291.5421074256</v>
       </c>
       <c r="I6" t="n">
-        <v>-56090.02730144861</v>
+        <v>-48496.78097052497</v>
       </c>
       <c r="J6" t="n">
-        <v>90767.22028847574</v>
+        <v>98360.46661939939</v>
       </c>
       <c r="K6" t="n">
-        <v>153827.1628875821</v>
+        <v>161420.4092185057</v>
       </c>
       <c r="L6" t="n">
-        <v>153827.1628875819</v>
+        <v>161420.4092185057</v>
       </c>
       <c r="M6" t="n">
-        <v>145069.5798923684</v>
+        <v>152662.826223292</v>
       </c>
       <c r="N6" t="n">
-        <v>153827.162887582</v>
+        <v>161420.4092185057</v>
       </c>
       <c r="O6" t="n">
-        <v>153827.1628875821</v>
+        <v>161420.4092185057</v>
       </c>
       <c r="P6" t="n">
-        <v>153827.162887582</v>
+        <v>161420.4092185057</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="G3" t="n">
         <v>35.02126071912534</v>
       </c>
       <c r="H3" t="n">
-        <v>35.0212607191253</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581683</v>
@@ -26804,7 +26804,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H4" t="n">
         <v>276.1565137023554</v>
@@ -26819,13 +26819,13 @@
         <v>505.8480854901219</v>
       </c>
       <c r="L4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="M4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="N4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="O4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197.725108539043</v>
+        <v>197.7251085390429</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469646</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -31767,31 +31767,31 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
         <v>0.01126311902524633</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779992</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -32004,31 +32004,31 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U14" t="n">
         <v>0.01126311902524633</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779992</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N15" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I16" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760114</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L20" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M20" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840332</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081216</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796962</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870372</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626973</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132612</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520182</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779983</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192329</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833407</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650262</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164366</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263566</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497749</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006201</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623699</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I22" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174384</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K22" t="n">
-        <v>7.33724118017084</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894677</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948809</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394042</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179677</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938406</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R22" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094296</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522136</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
@@ -35503,10 +35503,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>147.3552403359688</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35576,16 +35576,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522136</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K15" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>204.0920904142118</v>
+      </c>
+      <c r="N15" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="N15" t="n">
-        <v>144.9277431142228</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O16" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023554</v>
+        <v>160.6933770016707</v>
       </c>
       <c r="O18" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P18" t="n">
-        <v>23.32460243089367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424812</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>23.32460243089363</v>
       </c>
       <c r="L21" t="n">
         <v>248.6418854471727</v>
@@ -36214,10 +36214,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>23.3246024308939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,16 +36287,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831894</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.5514232038384</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881116</v>
       </c>
       <c r="L24" t="n">
         <v>340.9851071285437</v>
@@ -36448,7 +36448,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O24" t="n">
         <v>370.3773228808498</v>
@@ -36457,7 +36457,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>67.46400575222351</v>
       </c>
       <c r="K26" t="n">
-        <v>223.0755051182393</v>
+        <v>223.0755051182394</v>
       </c>
       <c r="L26" t="n">
         <v>329.5495640697432</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.5514232038384</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>36.33205227497277</v>
+        <v>82.88347547881116</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88347547881116</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37168,7 +37168,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.88347547881168</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M36" t="n">
-        <v>145.2864529071399</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.5514232038384</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37633,7 +37633,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N39" t="n">
-        <v>427.0884035208114</v>
+        <v>307.0731039843523</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.05046453712545</v>
+        <v>91.05046453712562</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>46.5514232038384</v>
       </c>
       <c r="K42" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M42" t="n">
-        <v>279.2862149615875</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N42" t="n">
         <v>478.2046900964478</v>
@@ -37879,7 +37879,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>36.33205227497272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.05046453712562</v>
+        <v>91.05046453712545</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>307.0731039843519</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O45" t="n">
         <v>370.3773228808498</v>
@@ -38116,7 +38116,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
